--- a/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/5. ТА без связи (Вин).xlsx
+++ b/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/5. ТА без связи (Вин).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D87672-B406-4CD1-8A0B-A7E8C87E1F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Установочные" sheetId="98" r:id="rId1"/>
@@ -14,16 +15,30 @@
     <sheet name="05.09" sheetId="138" r:id="rId5"/>
     <sheet name="06.09" sheetId="139" r:id="rId6"/>
     <sheet name="07.09" sheetId="140" r:id="rId7"/>
+    <sheet name="08.09" sheetId="141" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>Город</t>
   </si>
@@ -178,9 +193,6 @@
     <t>ОП Наб.Челны3</t>
   </si>
   <si>
-    <t>07.09</t>
-  </si>
-  <si>
     <t>ОП Белгород20</t>
   </si>
   <si>
@@ -212,12 +224,15 @@
   </si>
   <si>
     <t>ОП Воронеж2</t>
+  </si>
+  <si>
+    <t>08.09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
@@ -423,12 +438,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Автор" refreshedDate="44743.625012152777" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="293">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="44743.625012152777" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="293" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="сентябрь 2022"/>
   </cacheSource>
@@ -1938,7 +1956,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="СводнаяТаблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:F2" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2000,6 +2018,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -2047,7 +2068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2080,9 +2101,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2115,6 +2153,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2290,7 +2345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="8"/>
   </sheetPr>
@@ -2317,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C1">
         <f>LEN(J1)</f>
@@ -2858,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4415,7 +4470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4500,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4585,7 +4640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4670,7 +4725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4755,7 +4810,92 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897649C3-3AD4-495F-9C40-D22D2CB0F173}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4766,12 +4906,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4781,17 +4921,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -4801,32 +4941,32 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
